--- a/daeventbox/report.xlsx
+++ b/daeventbox/report.xlsx
@@ -33,13 +33,13 @@
     <t>Total Paid</t>
   </si>
   <si>
-    <t>AndreaMarshall</t>
+    <t>RobertTaylor</t>
   </si>
   <si>
-    <t>andrea@marshall.com</t>
+    <t>roberttaylor@example.com</t>
   </si>
   <si>
-    <t>2018-07-18</t>
+    <t>2018-08-20</t>
   </si>
 </sst>
 </file>
@@ -118,10 +118,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>40100</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
